--- a/biology/Botanique/Wahlenbergia_gloriosa/Wahlenbergia_gloriosa.xlsx
+++ b/biology/Botanique/Wahlenbergia_gloriosa/Wahlenbergia_gloriosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wahlenbergia gloriosa est une plante à fleur sauvage australienne de la famille des Campanulaceae. Elle pousse dans les régions ensoleillées et humides des Alpes australiennes notamment le mont Hotham
 Elle porte le nom de Georg Goran Wahlenberg (1780 - 1851), professeur de botanique à Uppsala, en Suède.
